--- a/medicine/Médecine vétérinaire/Fusil_hypodermique/Fusil_hypodermique.xlsx
+++ b/medicine/Médecine vétérinaire/Fusil_hypodermique/Fusil_hypodermique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fusil hypodermique est une arme, souvent de précision avec lunette, destinée à administrer un produit tranquillisant à un animal sauvage ou domestique, dangereux ou inapprochable.
 Un fusil hypodermique utilise pour la propulsion une cartouche de gaz CO2 et comme charge une fléchette-seringue qui contient le liquide sous pression (piston ou gaz aérosol). Au moment de l'impact, une capsule de cire bouchant le trou de l'aiguille se rompt et libère le produit.
